--- a/Cash Invoice/Cash Invoice.xlsx
+++ b/Cash Invoice/Cash Invoice.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Kaushal 001" sheetId="1" r:id="rId1"/>
     <sheet name="Primos Serene 002" sheetId="2" r:id="rId2"/>
+    <sheet name="Shezwan House 003" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>SR NO</t>
   </si>
@@ -68,13 +69,34 @@
   </si>
   <si>
     <t>Camera Box</t>
+  </si>
+  <si>
+    <t>INSTALLATION TESTING COMMISSIONING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cabling RJ 59 copper 3 + 1 Cat 6 with casing, cabling, laying </t>
+  </si>
+  <si>
+    <t>Enclosure with mounting</t>
+  </si>
+  <si>
+    <t>W Box 2Amps adaptor</t>
+  </si>
+  <si>
+    <t>Power Supply</t>
+  </si>
+  <si>
+    <t>Power Connector</t>
+  </si>
+  <si>
+    <t>W Box  2MP Dome Camera</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +111,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri  "/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri  "/>
     </font>
   </fonts>
   <fills count="2">
@@ -176,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -187,6 +220,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -194,6 +236,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -485,13 +536,13 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.8" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,7 +559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="13.8" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -526,13 +577,13 @@
         <v>15900</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="1">
         <f>SUM(E2:E2)</f>
         <v>15900</v>
@@ -553,17 +604,17 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.6640625" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18.600000000000001" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -580,7 +631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="12.6" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -598,7 +649,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -616,7 +667,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -634,7 +685,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -652,13 +703,13 @@
         <v>750</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="1">
         <f>SUM(E2:E5)</f>
         <v>3850</v>
@@ -670,4 +721,203 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="48.44140625" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="5">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E2" s="5">
+        <f t="shared" ref="E2:E9" si="0">C2*D2</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5">
+        <v>60</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5">
+        <v>40</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1990</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1800</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>100</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="26.4">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5">
+        <v>87</v>
+      </c>
+      <c r="D8" s="5">
+        <v>90</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>7830</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>4000</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="4">
+        <f>SUM(E2:E9)</f>
+        <v>26680</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A10:D10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Cash Invoice/Cash Invoice.xlsx
+++ b/Cash Invoice/Cash Invoice.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Kaushal 001" sheetId="1" r:id="rId1"/>
     <sheet name="Primos Serene 002" sheetId="2" r:id="rId2"/>
     <sheet name="Shezwan House 003" sheetId="3" r:id="rId3"/>
+    <sheet name="Ambika Jewellers 004" sheetId="4" r:id="rId4"/>
+    <sheet name="Nighale 005" sheetId="7" r:id="rId5"/>
+    <sheet name="Adv Manerkar 006" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
   <si>
     <t>SR NO</t>
   </si>
@@ -90,13 +93,25 @@
   </si>
   <si>
     <t>W Box  2MP Dome Camera</t>
+  </si>
+  <si>
+    <t>CCTV Cable 3+1</t>
+  </si>
+  <si>
+    <t>Service Calls Charges</t>
+  </si>
+  <si>
+    <t>Exide Battery 150 AH</t>
+  </si>
+  <si>
+    <t>Service call charges</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +138,21 @@
       <color theme="1"/>
       <name val="Calibri  "/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -209,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -229,6 +259,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -245,6 +287,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -578,12 +626,12 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="1">
         <f>SUM(E2:E2)</f>
         <v>15900</v>
@@ -704,12 +752,12 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="1">
         <f>SUM(E2:E5)</f>
         <v>3850</v>
@@ -730,8 +778,8 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -903,12 +951,12 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="4">
         <f>SUM(E2:E9)</f>
         <v>26680</v>
@@ -920,4 +968,235 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="25.8" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5">
+        <v>90</v>
+      </c>
+      <c r="E2" s="5">
+        <f t="shared" ref="E2:E3" si="0">C2*D2</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>900</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="4">
+        <f>SUM(E2:E3)</f>
+        <v>1800</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="41.4">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="27.6">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="9">
+        <f>C2*D2</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="10">
+        <f>SUM(E2)</f>
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>14000</v>
+      </c>
+      <c r="E2" s="9">
+        <f>C2*D2</f>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="10">
+        <f>SUM(E2)</f>
+        <v>14000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>